--- a/entrada-g5.xlsx
+++ b/entrada-g5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizcf/Engenharia/5Semestre/Transca/aps3-transmecsol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Insper\5-semestre\Transmecsol\aps3-transmecsol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6093FF-B218-DF43-A88E-7B352E5A8C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C22AB0-0B89-4BAB-BB19-D44133FC3C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="915" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,12 +112,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -556,12 +550,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -573,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -585,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -595,7 +589,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -605,7 +599,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>10</v>
       </c>
@@ -614,7 +608,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -623,7 +617,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -632,7 +626,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -641,7 +635,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -659,16 +653,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -686,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -705,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -723,7 +717,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -739,7 +733,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -755,7 +749,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -771,7 +765,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -787,7 +781,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -803,7 +797,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -819,7 +813,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -835,7 +829,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -851,7 +845,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -867,7 +861,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -883,7 +877,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -908,16 +902,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -933,7 +927,7 @@
       </c>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -941,8 +935,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <f>8*5*1000</f>
-        <v>40000</v>
+        <f>-8*5*1000</f>
+        <v>-40000</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="8">
@@ -951,7 +945,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -959,14 +953,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <f>12*5*1000</f>
-        <v>60000</v>
+        <f>-12*5*1000</f>
+        <v>-60000</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7</v>
       </c>
@@ -974,140 +968,140 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <f>8*5*1000</f>
-        <v>40000</v>
+        <f>-8*5*1000</f>
+        <v>-40000</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1128,12 +1122,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1158,7 +1152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1168,7 +1162,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1178,7 +1172,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>6</v>
       </c>
@@ -1188,7 +1182,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -1198,7 +1192,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -1208,97 +1202,97 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>

--- a/entrada-g5.xlsx
+++ b/entrada-g5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Insper\5-semestre\Transmecsol\aps3-transmecsol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C22AB0-0B89-4BAB-BB19-D44133FC3C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3F25B-F556-44B2-B344-A979CCD8B6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="915" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,9 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
       <c r="D2" s="8">
         <v>8</v>
       </c>
@@ -586,7 +588,9 @@
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +600,9 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,7 +612,9 @@
       <c r="B5" s="9">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -615,7 +623,9 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -624,7 +634,9 @@
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -633,7 +645,9 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -642,7 +656,9 @@
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -653,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +707,7 @@
         <v>210000000000</v>
       </c>
       <c r="D2" s="13">
-        <f t="shared" ref="D2:D14" si="0">PI()*(0.15^2)</f>
+        <f>PI()*(0.15^2)</f>
         <v>7.0685834705770348E-2</v>
       </c>
       <c r="E2" s="1"/>
@@ -710,7 +726,7 @@
         <v>210000000000</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:D14" si="0">PI()*(0.15^2)</f>
         <v>7.0685834705770348E-2</v>
       </c>
       <c r="E3" s="1"/>
